--- a/Switching Supply Calculation (DAC Control).xlsx
+++ b/Switching Supply Calculation (DAC Control).xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/henrychen/Dev/embedded/hardware/uwam_pdm_2021/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D82EF7C8-9582-D044-9546-3D0819336528}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{911DC2F0-12AF-6548-9AD3-DC8EBA5CDB06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15820" xr2:uid="{425639F6-C644-3144-948A-78E80C3DAE64}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="13620" windowHeight="15980" activeTab="1" xr2:uid="{425639F6-C644-3144-948A-78E80C3DAE64}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Buck Converter Parameters" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="80">
   <si>
     <t>vref</t>
   </si>
@@ -145,6 +146,135 @@
   </si>
   <si>
     <t>Cout</t>
+  </si>
+  <si>
+    <t>Input Parameters</t>
+  </si>
+  <si>
+    <t>Output Parameters</t>
+  </si>
+  <si>
+    <t>Vripple</t>
+  </si>
+  <si>
+    <t>Iripple</t>
+  </si>
+  <si>
+    <t>Ton</t>
+  </si>
+  <si>
+    <t>Rt</t>
+  </si>
+  <si>
+    <t>frequency</t>
+  </si>
+  <si>
+    <t>Tondelay</t>
+  </si>
+  <si>
+    <t>Toffdelay</t>
+  </si>
+  <si>
+    <t>Intermediate Parameters</t>
+  </si>
+  <si>
+    <t>Circuit</t>
+  </si>
+  <si>
+    <t>MOSFET</t>
+  </si>
+  <si>
+    <t>L1</t>
+  </si>
+  <si>
+    <t>Hz</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>kOhm</t>
+  </si>
+  <si>
+    <t>Rsen</t>
+  </si>
+  <si>
+    <t>Config</t>
+  </si>
+  <si>
+    <t>Current Sense</t>
+  </si>
+  <si>
+    <t>Icurrentlimit</t>
+  </si>
+  <si>
+    <t>uH</t>
+  </si>
+  <si>
+    <t>Iout min</t>
+  </si>
+  <si>
+    <t>Iout max</t>
+  </si>
+  <si>
+    <t>Vin min</t>
+  </si>
+  <si>
+    <t>Vin max</t>
+  </si>
+  <si>
+    <t>Vin nominal</t>
+  </si>
+  <si>
+    <t>Current Sense Voltage</t>
+  </si>
+  <si>
+    <t>uF</t>
+  </si>
+  <si>
+    <t>Cin + Cbyp</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>Input</t>
+  </si>
+  <si>
+    <t>Vout min</t>
+  </si>
+  <si>
+    <t>Vout max</t>
+  </si>
+  <si>
+    <t>ratio</t>
+  </si>
+  <si>
+    <t>Diode</t>
+  </si>
+  <si>
+    <t>Vfwd</t>
+  </si>
+  <si>
+    <t>Diode Power</t>
+  </si>
+  <si>
+    <t>nC</t>
+  </si>
+  <si>
+    <t>Pdiss max</t>
+  </si>
+  <si>
+    <t>min duty cycle</t>
+  </si>
+  <si>
+    <t>Total Gate Charge</t>
+  </si>
+  <si>
+    <t>Mosfet Power</t>
+  </si>
+  <si>
+    <t>Diode Current</t>
   </si>
 </sst>
 </file>
@@ -188,11 +318,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -509,8 +640,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4B107CE-1F7A-A649-89C3-4BF3FFC10B5E}">
   <dimension ref="A1:H63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" zoomScale="178" workbookViewId="0">
-      <selection activeCell="B63" sqref="B63"/>
+    <sheetView topLeftCell="A21" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1080,7 +1211,7 @@
         <v>26</v>
       </c>
       <c r="B42">
-        <v>1000000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
@@ -1089,7 +1220,7 @@
       </c>
       <c r="B43">
         <f>(0.000000145*(B42+1.4))/(B41-1.56+B42/3167)+0.00000005</f>
-        <v>4.3653960224509977E-4</v>
+        <v>3.0203926739323081E-4</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
@@ -1105,7 +1236,8 @@
         <v>26</v>
       </c>
       <c r="B46">
-        <v>220</v>
+        <f>B42</f>
+        <v>100000</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
@@ -1114,7 +1246,7 @@
       </c>
       <c r="B47" s="3">
         <f>(0.000000145*B46-0.000000203)/(B45-1.56+B46/3167)*1000</f>
-        <v>1.9199288024132129E-3</v>
+        <v>0.30198081181212194</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
@@ -1123,7 +1255,11 @@
       </c>
       <c r="B48" s="3">
         <f>B47/1000</f>
-        <v>1.9199288024132129E-6</v>
+        <v>3.0198081181212195E-4</v>
+      </c>
+      <c r="C48" s="4">
+        <f>1/B48</f>
+        <v>3311.468679083333</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
@@ -1166,7 +1302,7 @@
       </c>
       <c r="B55" s="3">
         <f>B48</f>
-        <v>1.9199288024132129E-6</v>
+        <v>3.0198081181212195E-4</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
@@ -1190,7 +1326,8 @@
         <v>33</v>
       </c>
       <c r="B58">
-        <v>20</v>
+        <f>10*0.2</f>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
@@ -1199,7 +1336,7 @@
       </c>
       <c r="B59" s="3">
         <f>(B55*(B56-B57))/B58</f>
-        <v>1.1519572814479276E-6</v>
+        <v>1.8118848708727317E-3</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
@@ -1208,7 +1345,7 @@
       </c>
       <c r="B61" s="3">
         <f>3*B48/(5000)</f>
-        <v>1.1519572814479277E-9</v>
+        <v>1.8118848708727318E-7</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
@@ -1217,13 +1354,435 @@
       </c>
       <c r="B62" s="3">
         <f>B58/8/500000/0.01</f>
-        <v>5.0000000000000001E-4</v>
+        <v>4.9999999999999996E-5</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B63" s="3">
         <f>B62/0.000001</f>
-        <v>500.00000000000006</v>
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FCDDCC2-8519-394E-AECA-E15A9CC07C15}">
+  <dimension ref="A1:L16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="89" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="10" max="10" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G2">
+        <f>C12-C11</f>
+        <v>5.1999999999999996E-8</v>
+      </c>
+      <c r="H2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2" t="s">
+        <v>66</v>
+      </c>
+      <c r="J2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K2" s="4">
+        <f>G3/8/C9/C10/0.000001</f>
+        <v>100</v>
+      </c>
+      <c r="L2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3">
+        <f>C7*0.2</f>
+        <v>2</v>
+      </c>
+      <c r="H3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" t="s">
+        <v>42</v>
+      </c>
+      <c r="K3" s="4">
+        <f>(C2*(C4-1.56)/(0.000000145*C4*C9)-(0.00000005+G2)*(12-1.56)/0.000000145-1.4)</f>
+        <v>155.02611494252878</v>
+      </c>
+      <c r="L3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F4" t="s">
+        <v>56</v>
+      </c>
+      <c r="G4">
+        <f>C7+G3/2</f>
+        <v>11</v>
+      </c>
+      <c r="H4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J4" t="s">
+        <v>49</v>
+      </c>
+      <c r="K4" s="4">
+        <f>G2*(C4-C2)/G3/0.000001</f>
+        <v>0.13</v>
+      </c>
+      <c r="L4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F5" t="s">
+        <v>63</v>
+      </c>
+      <c r="G5" s="3">
+        <f>G4*C15</f>
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="H5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" t="s">
+        <v>55</v>
+      </c>
+      <c r="J5" t="s">
+        <v>29</v>
+      </c>
+      <c r="K5" s="4">
+        <f>(G5+0.009)/0.000032</f>
+        <v>624.99999999999989</v>
+      </c>
+      <c r="L5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F6" t="s">
+        <v>65</v>
+      </c>
+      <c r="G6">
+        <f>C7*G2/C10/0.000001</f>
+        <v>104</v>
+      </c>
+      <c r="H6" t="s">
+        <v>64</v>
+      </c>
+      <c r="I6" t="s">
+        <v>71</v>
+      </c>
+      <c r="J6" t="s">
+        <v>73</v>
+      </c>
+      <c r="K6" s="4">
+        <f>C16*C7*(1-G7)</f>
+        <v>1.0769230769230769</v>
+      </c>
+      <c r="L6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7">
+        <v>10</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F7" t="s">
+        <v>76</v>
+      </c>
+      <c r="G7">
+        <f>C3/C6</f>
+        <v>0.46153846153846156</v>
+      </c>
+      <c r="H7" t="s">
+        <v>70</v>
+      </c>
+      <c r="I7" t="s">
+        <v>47</v>
+      </c>
+      <c r="J7" t="s">
+        <v>75</v>
+      </c>
+      <c r="K7" s="4">
+        <f>C4*(C13*C9+0.0014)</f>
+        <v>0.31049999999999994</v>
+      </c>
+      <c r="L7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>66</v>
+      </c>
+      <c r="B8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" t="s">
+        <v>71</v>
+      </c>
+      <c r="F8" t="s">
+        <v>79</v>
+      </c>
+      <c r="G8" s="4">
+        <f>C9*C13</f>
+        <v>1.585E-2</v>
+      </c>
+      <c r="H8" t="s">
+        <v>23</v>
+      </c>
+      <c r="I8" t="s">
+        <v>48</v>
+      </c>
+      <c r="J8" t="s">
+        <v>78</v>
+      </c>
+      <c r="K8" s="4">
+        <f>C7^2*C14</f>
+        <v>1.1199999999999999</v>
+      </c>
+      <c r="L8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="3">
+        <v>500000</v>
+      </c>
+      <c r="D9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="3">
+        <v>3.2000000000000002E-8</v>
+      </c>
+      <c r="D11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="3">
+        <v>8.3999999999999998E-8</v>
+      </c>
+      <c r="D12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" t="s">
+        <v>77</v>
+      </c>
+      <c r="C13" s="3">
+        <v>3.1699999999999999E-8</v>
+      </c>
+      <c r="D13" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="3">
+        <v>1.12E-2</v>
+      </c>
+      <c r="D14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="D15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>71</v>
+      </c>
+      <c r="B16" t="s">
+        <v>72</v>
+      </c>
+      <c r="C16" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="D16" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/Switching Supply Calculation (DAC Control).xlsx
+++ b/Switching Supply Calculation (DAC Control).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/henrychen/Dev/embedded/hardware/uwam_pdm_2021/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{911DC2F0-12AF-6548-9AD3-DC8EBA5CDB06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5718EA66-8189-6F42-8FB1-851A3446A5F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="13620" windowHeight="15980" activeTab="1" xr2:uid="{425639F6-C644-3144-948A-78E80C3DAE64}"/>
+    <workbookView xWindow="-5140" yWindow="-21100" windowWidth="21020" windowHeight="21100" activeTab="1" xr2:uid="{425639F6-C644-3144-948A-78E80C3DAE64}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="84">
   <si>
     <t>vref</t>
   </si>
@@ -241,12 +241,6 @@
     <t>Input</t>
   </si>
   <si>
-    <t>Vout min</t>
-  </si>
-  <si>
-    <t>Vout max</t>
-  </si>
-  <si>
     <t>ratio</t>
   </si>
   <si>
@@ -275,6 +269,24 @@
   </si>
   <si>
     <t>Diode Current</t>
+  </si>
+  <si>
+    <t>Feedback</t>
+  </si>
+  <si>
+    <t>Cff</t>
+  </si>
+  <si>
+    <t>pF</t>
+  </si>
+  <si>
+    <t>Td</t>
+  </si>
+  <si>
+    <t>Vout</t>
+  </si>
+  <si>
+    <t>Current Ripple</t>
   </si>
 </sst>
 </file>
@@ -318,12 +330,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -640,7 +653,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4B107CE-1F7A-A649-89C3-4BF3FFC10B5E}">
   <dimension ref="A1:H63"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+    <sheetView topLeftCell="A5" zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
       <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
@@ -1372,8 +1385,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FCDDCC2-8519-394E-AECA-E15A9CC07C15}">
   <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="89" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" zoomScale="90" workbookViewId="0">
+      <selection activeCell="K6" sqref="A1:L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1398,10 +1411,10 @@
         <v>66</v>
       </c>
       <c r="B2" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="C2">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="D2" t="s">
         <v>19</v>
@@ -1410,11 +1423,11 @@
         <v>48</v>
       </c>
       <c r="F2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G2">
-        <f>C12-C11</f>
-        <v>5.1999999999999996E-8</v>
+        <v>81</v>
+      </c>
+      <c r="G2" s="3">
+        <f>C11-C10</f>
+        <v>5.7000000000000001E-8</v>
       </c>
       <c r="H2" t="s">
         <v>51</v>
@@ -1426,8 +1439,8 @@
         <v>36</v>
       </c>
       <c r="K2" s="4">
-        <f>G3/8/C9/C10/0.000001</f>
-        <v>100</v>
+        <f>G3/8/C8/C9/0.000001</f>
+        <v>83.333333333333329</v>
       </c>
       <c r="L2" t="s">
         <v>64</v>
@@ -1435,13 +1448,13 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B3" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="C3">
-        <v>6</v>
+        <v>55</v>
       </c>
       <c r="D3" t="s">
         <v>19</v>
@@ -1453,8 +1466,8 @@
         <v>40</v>
       </c>
       <c r="G3">
-        <f>C7*0.2</f>
-        <v>2</v>
+        <f>C6*0.2</f>
+        <v>1</v>
       </c>
       <c r="H3" t="s">
         <v>23</v>
@@ -1465,9 +1478,9 @@
       <c r="J3" t="s">
         <v>42</v>
       </c>
-      <c r="K3" s="4">
-        <f>(C2*(C4-1.56)/(0.000000145*C4*C9)-(0.00000005+G2)*(12-1.56)/0.000000145-1.4)</f>
-        <v>155.02611494252878</v>
+      <c r="K3" s="3">
+        <f>(C2*(C5-1.56)/(0.000000145*C5*C8))-(0.00000005+G2)*(12-1.56)/0.000000145-1.4</f>
+        <v>90.896000000000015</v>
       </c>
       <c r="L3" t="s">
         <v>52</v>
@@ -1478,10 +1491,10 @@
         <v>67</v>
       </c>
       <c r="B4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C4">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="D4" t="s">
         <v>19</v>
@@ -1493,8 +1506,8 @@
         <v>56</v>
       </c>
       <c r="G4">
-        <f>C7+G3/2</f>
-        <v>11</v>
+        <f>C6+G3/2</f>
+        <v>5.5</v>
       </c>
       <c r="H4" t="s">
         <v>23</v>
@@ -1505,9 +1518,9 @@
       <c r="J4" t="s">
         <v>49</v>
       </c>
-      <c r="K4" s="4">
-        <f>G2*(C4-C2)/G3/0.000001</f>
-        <v>0.13</v>
+      <c r="K4" s="5">
+        <f>G9*(C3-C2)/1.2*1000000</f>
+        <v>55.348935989626227</v>
       </c>
       <c r="L4" t="s">
         <v>57</v>
@@ -1518,7 +1531,7 @@
         <v>67</v>
       </c>
       <c r="B5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C5">
         <v>12</v>
@@ -1533,8 +1546,8 @@
         <v>63</v>
       </c>
       <c r="G5" s="3">
-        <f>G4*C15</f>
-        <v>1.0999999999999999E-2</v>
+        <f>G4*C14</f>
+        <v>5.4999999999999997E-3</v>
       </c>
       <c r="H5" t="s">
         <v>19</v>
@@ -1547,7 +1560,7 @@
       </c>
       <c r="K5" s="4">
         <f>(G5+0.009)/0.000032</f>
-        <v>624.99999999999989</v>
+        <v>453.125</v>
       </c>
       <c r="L5" t="s">
         <v>24</v>
@@ -1555,16 +1568,16 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C6">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E6" t="s">
         <v>67</v>
@@ -1573,21 +1586,21 @@
         <v>65</v>
       </c>
       <c r="G6">
-        <f>C7*G2/C10/0.000001</f>
-        <v>104</v>
+        <f>C6*G2/C9/0.000001</f>
+        <v>57.000000000000007</v>
       </c>
       <c r="H6" t="s">
         <v>64</v>
       </c>
       <c r="I6" t="s">
+        <v>69</v>
+      </c>
+      <c r="J6" t="s">
         <v>71</v>
       </c>
-      <c r="J6" t="s">
-        <v>73</v>
-      </c>
       <c r="K6" s="4">
-        <f>C16*C7*(1-G7)</f>
-        <v>1.0769230769230769</v>
+        <f>C16*C6*(1-G7)</f>
+        <v>0.72916666666666652</v>
       </c>
       <c r="L6" t="s">
         <v>22</v>
@@ -1598,10 +1611,10 @@
         <v>66</v>
       </c>
       <c r="B7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C7">
-        <v>10</v>
+        <v>0.6</v>
       </c>
       <c r="D7" t="s">
         <v>23</v>
@@ -1610,24 +1623,24 @@
         <v>54</v>
       </c>
       <c r="F7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G7">
-        <f>C3/C6</f>
-        <v>0.46153846153846156</v>
+        <f>C2/C5</f>
+        <v>0.41666666666666669</v>
       </c>
       <c r="H7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I7" t="s">
         <v>47</v>
       </c>
       <c r="J7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K7" s="4">
-        <f>C4*(C13*C9+0.0014)</f>
-        <v>0.31049999999999994</v>
+        <f>C3*(C12*C8+0.0014)</f>
+        <v>0.73699999999999999</v>
       </c>
       <c r="L7" t="s">
         <v>22</v>
@@ -1638,23 +1651,23 @@
         <v>66</v>
       </c>
       <c r="B8" t="s">
-        <v>58</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
+        <v>43</v>
+      </c>
+      <c r="C8" s="3">
+        <v>300000</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="E8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G8" s="4">
-        <f>C9*C13</f>
-        <v>1.585E-2</v>
+        <f>C8*C12</f>
+        <v>1.2E-2</v>
       </c>
       <c r="H8" t="s">
         <v>23</v>
@@ -1663,11 +1676,11 @@
         <v>48</v>
       </c>
       <c r="J8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K8" s="4">
-        <f>C7^2*C14</f>
-        <v>1.1199999999999999</v>
+        <f>C6^2*C13</f>
+        <v>1.6</v>
       </c>
       <c r="L8" t="s">
         <v>22</v>
@@ -1678,38 +1691,69 @@
         <v>66</v>
       </c>
       <c r="B9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C9" s="3">
-        <v>500000</v>
+        <v>39</v>
+      </c>
+      <c r="C9">
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="D9" t="s">
-        <v>50</v>
+        <v>19</v>
+      </c>
+      <c r="E9" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" t="s">
+        <v>41</v>
+      </c>
+      <c r="G9" s="3">
+        <f>0.000000145*(K3+1.4)/(C5-1.56+K3/3167)+0.00000005</f>
+        <v>1.3283744637510295E-6</v>
+      </c>
+      <c r="H9" t="s">
+        <v>51</v>
+      </c>
+      <c r="I9" t="s">
+        <v>78</v>
+      </c>
+      <c r="J9" t="s">
+        <v>79</v>
+      </c>
+      <c r="K9">
+        <f>3*G2/5000/0.000000000001</f>
+        <v>34.200000000000003</v>
+      </c>
+      <c r="L9" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="B10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10">
-        <v>5.0000000000000001E-3</v>
+        <v>44</v>
+      </c>
+      <c r="C10" s="3">
+        <v>8.0000000000000005E-9</v>
       </c>
       <c r="D10" t="s">
-        <v>19</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="G10" s="3">
+        <f>G9*1000000000</f>
+        <v>1328.3744637510295</v>
+      </c>
+      <c r="K10" s="3"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>48</v>
       </c>
       <c r="B11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C11" s="3">
-        <v>3.2000000000000002E-8</v>
+        <v>6.5E-8</v>
       </c>
       <c r="D11" t="s">
         <v>51</v>
@@ -1720,13 +1764,13 @@
         <v>48</v>
       </c>
       <c r="B12" t="s">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="C12" s="3">
-        <v>8.3999999999999998E-8</v>
+        <v>4.0000000000000001E-8</v>
       </c>
       <c r="D12" t="s">
-        <v>51</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -1734,24 +1778,24 @@
         <v>48</v>
       </c>
       <c r="B13" t="s">
-        <v>77</v>
+        <v>14</v>
       </c>
       <c r="C13" s="3">
-        <v>3.1699999999999999E-8</v>
+        <v>6.4000000000000001E-2</v>
       </c>
       <c r="D13" t="s">
-        <v>74</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="C14" s="3">
-        <v>1.12E-2</v>
+        <v>1E-3</v>
       </c>
       <c r="D14" t="s">
         <v>24</v>
@@ -1759,27 +1803,24 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="B15" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="C15" s="3">
-        <v>1E-3</v>
-      </c>
-      <c r="D15" t="s">
-        <v>24</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B16" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C16" s="3">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="D16" t="s">
         <v>19</v>
